--- a/biology/Histoire de la zoologie et de la botanique/Emma_Lucy_Braun/Emma_Lucy_Braun.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Emma_Lucy_Braun/Emma_Lucy_Braun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emma Lucy Braun (19 avril 1889 – 5 mars 1971) est une botaniste et écologue américaine.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emma Lucy Braun naît le 19 avril 1889 à Cincinnati, où elle passe toute sa vie jusqu'à sa mort le 5 mars 1971[1]. Elle fait tout son cursus universitaire, d'abord en géologie puis en botanique à l'Université de Cincinnati jusqu'à son doctorat en botanique passé en 1914[1]. Elle reste dans cette même université où elle enseigne la botanique et mène des recherches, décrivant plusieurs taxons[2]. Elle est la première femme nommée présidente de la Société américaine d'écologie en 1950[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emma Lucy Braun naît le 19 avril 1889 à Cincinnati, où elle passe toute sa vie jusqu'à sa mort le 5 mars 1971. Elle fait tout son cursus universitaire, d'abord en géologie puis en botanique à l'Université de Cincinnati jusqu'à son doctorat en botanique passé en 1914. Elle reste dans cette même université où elle enseigne la botanique et mène des recherches, décrivant plusieurs taxons. Elle est la première femme nommée présidente de la Société américaine d'écologie en 1950.
 </t>
         </is>
       </c>
